--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\API_request\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B897AF7D-DAB6-4E54-9783-3BD01C5681FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA50605-A0DB-453C-9F45-677A7E7F0A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,12 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +277,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
     <col min="5" max="5" width="21.296875" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
     <col min="7" max="7" width="34.3984375" customWidth="1"/>
-    <col min="8" max="8" width="58.796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="58.796875" style="2" customWidth="1"/>
     <col min="9" max="9" width="55.8984375" customWidth="1"/>
     <col min="10" max="10" width="12.796875" customWidth="1"/>
     <col min="11" max="11" width="10.3984375" customWidth="1"/>
@@ -611,7 +611,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -655,7 +655,7 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J2" t="s">
@@ -669,10 +669,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
@@ -690,7 +690,7 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
@@ -699,18 +699,18 @@
       <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
@@ -725,7 +725,7 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J4" t="s">
@@ -745,9 +745,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
         <v>29</v>
       </c>
@@ -760,10 +760,10 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J5" t="s">
@@ -772,18 +772,18 @@
       <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
@@ -798,7 +798,7 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J6" t="s">
@@ -818,9 +818,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>29</v>
       </c>
@@ -833,10 +833,10 @@
       <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J7" t="s">
@@ -845,18 +845,18 @@
       <c r="M7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
@@ -871,7 +871,7 @@
       <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
@@ -891,9 +891,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" t="s">
         <v>29</v>
       </c>
@@ -906,10 +906,10 @@
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J9" t="s">
@@ -918,18 +918,18 @@
       <c r="M9" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
@@ -944,7 +944,7 @@
       <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J10" t="s">
@@ -964,9 +964,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="5"/>
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -979,10 +979,10 @@
       <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
@@ -991,7 +991,7 @@
       <c r="M11" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
